--- a/realme/OCTOBER/04.10.2021/realme Bank Statement OCTOBER 2021.xlsx
+++ b/realme/OCTOBER/04.10.2021/realme Bank Statement OCTOBER 2021.xlsx
@@ -2399,12 +2399,45 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="35" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="35" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2415,39 +2448,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="35" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="35" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3901,67 +3901,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="262" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="268"/>
-      <c r="M1" s="268"/>
-      <c r="N1" s="268"/>
-      <c r="O1" s="268"/>
-      <c r="P1" s="268"/>
-      <c r="Q1" s="268"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
+      <c r="N1" s="262"/>
+      <c r="O1" s="262"/>
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
     </row>
     <row r="2" spans="1:24" s="118" customFormat="1" ht="18">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="263" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
-      <c r="I2" s="269"/>
-      <c r="J2" s="269"/>
-      <c r="K2" s="269"/>
-      <c r="L2" s="269"/>
-      <c r="M2" s="269"/>
-      <c r="N2" s="269"/>
-      <c r="O2" s="269"/>
-      <c r="P2" s="269"/>
-      <c r="Q2" s="269"/>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="263"/>
+      <c r="N2" s="263"/>
+      <c r="O2" s="263"/>
+      <c r="P2" s="263"/>
+      <c r="Q2" s="263"/>
     </row>
     <row r="3" spans="1:24" s="119" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="270" t="s">
+      <c r="A3" s="264" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="271"/>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="271"/>
-      <c r="J3" s="271"/>
-      <c r="K3" s="271"/>
-      <c r="L3" s="271"/>
-      <c r="M3" s="271"/>
-      <c r="N3" s="271"/>
-      <c r="O3" s="271"/>
-      <c r="P3" s="271"/>
-      <c r="Q3" s="272"/>
+      <c r="B3" s="265"/>
+      <c r="C3" s="265"/>
+      <c r="D3" s="265"/>
+      <c r="E3" s="265"/>
+      <c r="F3" s="265"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="265"/>
+      <c r="I3" s="265"/>
+      <c r="J3" s="265"/>
+      <c r="K3" s="265"/>
+      <c r="L3" s="265"/>
+      <c r="M3" s="265"/>
+      <c r="N3" s="265"/>
+      <c r="O3" s="265"/>
+      <c r="P3" s="265"/>
+      <c r="Q3" s="266"/>
       <c r="S3" s="49"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -3970,52 +3970,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="121" customFormat="1">
-      <c r="A4" s="273" t="s">
+      <c r="A4" s="267" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="275" t="s">
+      <c r="B4" s="269" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="262" t="s">
+      <c r="C4" s="271" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="262" t="s">
+      <c r="D4" s="271" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="262" t="s">
+      <c r="E4" s="271" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="262" t="s">
+      <c r="F4" s="271" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="262" t="s">
+      <c r="G4" s="271" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="262" t="s">
+      <c r="H4" s="271" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="262" t="s">
+      <c r="I4" s="271" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="262" t="s">
+      <c r="J4" s="271" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="262" t="s">
+      <c r="K4" s="271" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="262" t="s">
+      <c r="L4" s="271" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="262" t="s">
+      <c r="M4" s="271" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="266" t="s">
+      <c r="N4" s="277" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="264" t="s">
+      <c r="O4" s="275" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="277" t="s">
+      <c r="P4" s="273" t="s">
         <v>42</v>
       </c>
       <c r="Q4" s="120" t="s">
@@ -4028,22 +4028,22 @@
       <c r="W4" s="123"/>
     </row>
     <row r="5" spans="1:24" s="121" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="274"/>
-      <c r="B5" s="276"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="263"/>
-      <c r="F5" s="263"/>
-      <c r="G5" s="263"/>
-      <c r="H5" s="263"/>
-      <c r="I5" s="263"/>
-      <c r="J5" s="263"/>
-      <c r="K5" s="263"/>
-      <c r="L5" s="263"/>
-      <c r="M5" s="263"/>
-      <c r="N5" s="267"/>
-      <c r="O5" s="265"/>
-      <c r="P5" s="278"/>
+      <c r="A5" s="268"/>
+      <c r="B5" s="270"/>
+      <c r="C5" s="272"/>
+      <c r="D5" s="272"/>
+      <c r="E5" s="272"/>
+      <c r="F5" s="272"/>
+      <c r="G5" s="272"/>
+      <c r="H5" s="272"/>
+      <c r="I5" s="272"/>
+      <c r="J5" s="272"/>
+      <c r="K5" s="272"/>
+      <c r="L5" s="272"/>
+      <c r="M5" s="272"/>
+      <c r="N5" s="278"/>
+      <c r="O5" s="276"/>
+      <c r="P5" s="274"/>
       <c r="Q5" s="125" t="s">
         <v>43</v>
       </c>
@@ -6961,6 +6961,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -6977,9 +6980,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17138,8 +17138,8 @@
   </sheetPr>
   <dimension ref="A1:AC225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
